--- a/courbe.xlsx
+++ b/courbe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angyp\.spyder-py3\sae15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C6DA8-02F9-4895-894B-CECE532D4061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E839ED26-1946-4906-8352-8F5F931D37C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>DESTINATION</t>
   </si>
@@ -102,12 +102,33 @@
   <si>
     <t>192.168.190.130</t>
   </si>
+  <si>
+    <t xml:space="preserve"> FLAG </t>
+  </si>
+  <si>
+    <t>P.</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>S.</t>
+  </si>
+  <si>
+    <t>F.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de  FLAG </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,16 +144,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,15 +175,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -823,6 +868,431 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Nombre de  FLAG </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>.</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>F.</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>P.</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>S</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>S.</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>(vide)</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>6961</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1673</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>46</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3080-451E-8D47-529124486AD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1463672351"/>
+        <c:axId val="1463673183"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1463672351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463673183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1463673183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463672351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -971,6 +1441,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2528,6 +3038,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2675,6 +3688,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1640043-E347-4283-AB72-03C47AC0AC02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2948,16 +3999,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U11017"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="11" max="11" width="36" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
+    <col min="23" max="23" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -3168,82 +4222,118 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U17">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U18">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="U22">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>6961</v>
+      </c>
       <c r="U23">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
       <c r="U24">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1673</v>
+      </c>
       <c r="U25">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>2046</v>
+      </c>
       <c r="U26">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>46</v>
+      </c>
       <c r="U27">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32">
         <v>120</v>
       </c>
